--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980" activeTab="3"/>
+    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Huang" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>Auction System</t>
+  </si>
+  <si>
+    <t>Designkonzept</t>
+  </si>
+  <si>
+    <t>Designkozept Terminausarbeitung Status</t>
+  </si>
+  <si>
+    <t>Terminplan Arbeitszeiterfassung Aufteilung Detailplanung</t>
+  </si>
+  <si>
+    <t>Grob Implementierung Server, Auction, User</t>
+  </si>
+  <si>
+    <t>Designüberlegung schreiben</t>
   </si>
 </sst>
 </file>
@@ -364,18 +379,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -398,14 +401,26 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -734,41 +749,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
@@ -977,12 +992,12 @@
       <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="5">
         <f>SUM(E5:E31)</f>
         <v>0</v>
@@ -1064,244 +1079,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="33">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1325,255 +1340,379 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A5" s="23">
+        <v>41609</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="19">
+        <f>D5-C5</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28">
+      <c r="A6" s="23">
+        <v>41612</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" ref="E6:E31" si="0">D6-C6</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28">
+      <c r="A7" s="23">
+        <v>41618</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="23">
+        <v>41618</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.84375</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.13541666666666663</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="23">
+        <v>41618</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.84375</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="33">
-        <v>0</v>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="29">
+        <f>SUM(E5:E31)</f>
+        <v>0.32638888888888884</v>
       </c>
     </row>
     <row r="33" ht="15" thickTop="1"/>
@@ -1596,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1611,244 +1750,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="33">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Huang" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Designüberlegung schreiben</t>
+  </si>
+  <si>
+    <t>Testklassen erstellt für die alle Klassen</t>
+  </si>
+  <si>
+    <t>Package Client,Server,Modell getestet mit einer durchschnitt coverage von 89%</t>
   </si>
 </sst>
 </file>
@@ -357,9 +363,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -367,13 +370,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +418,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -734,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -749,41 +753,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
@@ -803,204 +807,226 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A5" s="33">
+        <v>41621</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E5" s="11">
+        <f>D5-C5</f>
+        <v>0.10763888888888888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="42">
+      <c r="A6" s="33">
+        <v>41626</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.0069444444444444</v>
+      </c>
+      <c r="E6" s="11">
+        <f>D6-C6</f>
+        <v>0.17361111111111105</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" s="3" customFormat="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" s="3" customFormat="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="5">
         <f>SUM(E5:E31)</f>
-        <v>0</v>
+        <v>0.28124999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickTop="1"/>
@@ -1079,244 +1105,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="26"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="29">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="25">
         <v>0</v>
       </c>
     </row>
@@ -1340,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1352,365 +1378,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23">
+      <c r="A5" s="19">
         <v>41609</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>0.5</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <f>D5-C5</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28">
-      <c r="A6" s="23">
+      <c r="A6" s="19">
         <v>41612</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <f t="shared" ref="E6:E31" si="0">D6-C6</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>41618</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>1.7361111111111105E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>41618</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>0.84375</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>0.13541666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23">
+      <c r="A9" s="19">
         <v>41618</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>0.84375</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>0.875</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19">
+      <c r="A21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19">
+      <c r="A22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19">
+      <c r="A23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19">
+      <c r="A24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="26"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19">
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19">
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="29">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="25">
         <f>SUM(E5:E31)</f>
         <v>0.32638888888888884</v>
       </c>
@@ -1750,244 +1776,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="26"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="29">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="25">
         <v>0</v>
       </c>
     </row>
